--- a/CodeSystem-nigeria-gender.xlsx
+++ b/CodeSystem-nigeria-gender.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-23T12:11:34+01:00</t>
+    <t>2025-06-23T13:45:54+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-nigeria-gender.xlsx
+++ b/CodeSystem-nigeria-gender.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="47">
   <si>
     <t>Property</t>
   </si>
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>NG Gender or Sex</t>
+    <t>NG-Imm Gender or Sex CS</t>
   </si>
   <si>
     <t>Status</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-23T13:45:54+01:00</t>
+    <t>2025-06-24T09:13:37+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -96,16 +96,10 @@
     <t>Case Sensitive</t>
   </si>
   <si>
-    <t>true</t>
-  </si>
-  <si>
     <t>Value Set (all codes)</t>
   </si>
   <si>
     <t>Hierarchy</t>
-  </si>
-  <si>
-    <t>is-a</t>
   </si>
   <si>
     <t>Compositional</t>
@@ -421,56 +415,52 @@
       <c r="A16" t="s" s="2">
         <v>26</v>
       </c>
-      <c r="B16" t="s" s="2">
-        <v>27</v>
-      </c>
+      <c r="B16" s="2"/>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B17" s="2"/>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>29</v>
-      </c>
-      <c r="B18" t="s" s="2">
-        <v>30</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="B18" s="2"/>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B19" s="2"/>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B20" s="2"/>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B22" s="2"/>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -488,44 +478,44 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
+        <v>36</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>37</v>
+      </c>
+      <c r="C1" t="s" s="1">
         <v>38</v>
       </c>
-      <c r="B1" t="s" s="1">
+      <c r="D1" t="s" s="1">
         <v>39</v>
-      </c>
-      <c r="C1" t="s" s="1">
-        <v>40</v>
-      </c>
-      <c r="D1" t="s" s="1">
-        <v>41</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="C2" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="B2" t="s" s="2">
+      <c r="D2" t="s" s="2">
         <v>43</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D2" t="s" s="2">
-        <v>45</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B3" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="C3" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D3" t="s" s="2">
         <v>46</v>
-      </c>
-      <c r="C3" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="D3" t="s" s="2">
-        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/CodeSystem-nigeria-gender.xlsx
+++ b/CodeSystem-nigeria-gender.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-03T11:54:34+01:00</t>
+    <t>2025-07-03T13:36:09+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-nigeria-gender.xlsx
+++ b/CodeSystem-nigeria-gender.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-03T13:36:09+01:00</t>
+    <t>2025-07-04T07:50:29+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-nigeria-gender.xlsx
+++ b/CodeSystem-nigeria-gender.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-04T07:50:29+01:00</t>
+    <t>2025-07-04T16:58:52+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-nigeria-gender.xlsx
+++ b/CodeSystem-nigeria-gender.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-04T16:58:52+01:00</t>
+    <t>2025-07-04T18:56:28+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-nigeria-gender.xlsx
+++ b/CodeSystem-nigeria-gender.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.4.0</t>
+    <t>0.5.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-04T18:56:28+01:00</t>
+    <t>2025-07-04T19:33:02+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-nigeria-gender.xlsx
+++ b/CodeSystem-nigeria-gender.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-04T19:33:02+01:00</t>
+    <t>2025-07-17T18:57:38+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-nigeria-gender.xlsx
+++ b/CodeSystem-nigeria-gender.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-17T18:57:38+01:00</t>
+    <t>2025-08-03T02:35:31+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-nigeria-gender.xlsx
+++ b/CodeSystem-nigeria-gender.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-03T02:35:31+01:00</t>
+    <t>2025-08-03T02:50:50+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
